--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail7 Features.xlsx
@@ -4646,7 +4646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,29 +4657,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4700,115 +4698,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4825,72 +4813,66 @@
         <v>9.848803207223734e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.984046426308403</v>
+        <v>6.928402393038412e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.886771607362704</v>
+        <v>4.660294326841281e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.928402393038412e-07</v>
+        <v>0.103494523809028</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.660294326841281e-06</v>
+        <v>0.4255821501333032</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.103494523809028</v>
+        <v>0.1914083978300672</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4255821501333032</v>
+        <v>1.851075208408604</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1914083978300672</v>
+        <v>1.856615594286966</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.828846176603943</v>
+        <v>3.854427516510122</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.856615594286966</v>
+        <v>6.50641930451509e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.854427516510122</v>
+        <v>61910022.10206618</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.50641930451509e-15</v>
+        <v>1.920664081332851e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>61910022.10206618</v>
+        <v>24.93813467509066</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.920664081332851e-06</v>
+        <v>0.0001511106553410809</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>24.93813467509066</v>
+        <v>10.09885789500283</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001511106553410809</v>
+        <v>1.132394585517777</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.09885789500283</v>
+        <v>0.01541131194691423</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.132394585517777</v>
+        <v>2.646111847208017</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01541131194691423</v>
+        <v>0.9632088470027859</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.646111847208017</v>
+        <v>1.603655335205008</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9632088470027859</v>
+        <v>3</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.603655335205008</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2228222156382494</v>
       </c>
     </row>
@@ -4905,72 +4887,66 @@
         <v>7.865062468489449e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.8555133229374786</v>
+        <v>4.765816203253695e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.243038064947522</v>
+        <v>4.668500963479025e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.765816203253695e-07</v>
+        <v>0.0818480272705268</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.668500963479025e-06</v>
+        <v>0.408475233438667</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0818480272705268</v>
+        <v>0.1732011363004224</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.408475233438667</v>
+        <v>1.857049908003862</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1732011363004224</v>
+        <v>1.860987821533207</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.830939401895138</v>
+        <v>3.8434156386651</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.860987821533207</v>
+        <v>6.543756163981051e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.8434156386651</v>
+        <v>61938549.56217244</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.543756163981051e-15</v>
+        <v>1.922587883615936e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>61938549.56217244</v>
+        <v>25.10436093610642</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.922587883615936e-06</v>
+        <v>0.0001497806227306298</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>25.10436093610642</v>
+        <v>9.505519968432283</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001497806227306298</v>
+        <v>1.17896331931489</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.505519968432283</v>
+        <v>0.0135334146671382</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.17896331931489</v>
+        <v>2.738803842891083</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0135334146671382</v>
+        <v>0.9633300478088631</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.738803842891083</v>
+        <v>1.602416633240564</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9633300478088631</v>
+        <v>3</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.602416633240564</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2165756300316537</v>
       </c>
     </row>
@@ -4985,72 +4961,66 @@
         <v>6.977297847938111e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3262901962136459</v>
+        <v>3.202010833501885e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8263569627981648</v>
+        <v>4.673473181214193e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.202010833501885e-07</v>
+        <v>0.05244804766646317</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.673473181214193e-06</v>
+        <v>0.3653920414020436</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.05244804766646317</v>
+        <v>0.1360232112241266</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3653920414020436</v>
+        <v>1.855271175841453</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1360232112241266</v>
+        <v>1.834148185526494</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.831331176138733</v>
+        <v>3.848113441039875</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.834148185526494</v>
+        <v>6.527788594862915e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.848113441039875</v>
+        <v>62035514.16221239</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.527788594862915e-15</v>
+        <v>1.918479855073112e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>62035514.16221239</v>
+        <v>25.12157438080146</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.918479855073112e-06</v>
+        <v>0.0001505301230196789</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>25.12157438080146</v>
+        <v>8.141402812262729</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001505301230196789</v>
+        <v>1.393960673706886</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.141402812262729</v>
+        <v>0.009977503809840683</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.393960673706886</v>
+        <v>2.935252051605963</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009977503809840683</v>
+        <v>0.963173202960813</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.935252051605963</v>
+        <v>1.582357129709324</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.963173202960813</v>
+        <v>19</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.582357129709324</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.206359428214473</v>
       </c>
     </row>
@@ -5065,72 +5035,66 @@
         <v>6.701104026467016e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2841830076528497</v>
+        <v>2.395449126294067e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.905266827438016</v>
+        <v>4.676025639835422e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.395449126294067e-07</v>
+        <v>0.02310777224579346</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.676025639835422e-06</v>
+        <v>0.3111121993061483</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02310777224579346</v>
+        <v>0.09717355194816037</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3111121993061483</v>
+        <v>1.859108862167472</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.09717355194816037</v>
+        <v>1.816047810418452</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.833823183347803</v>
+        <v>3.858574373225562</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.816047810418452</v>
+        <v>6.492441763862731e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.858574373225562</v>
+        <v>63444327.04825147</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.492441763862731e-15</v>
+        <v>1.876406964058199e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>63444327.04825147</v>
+        <v>26.13326384408773</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.876406964058199e-06</v>
+        <v>0.0001681450841110006</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>26.13326384408773</v>
+        <v>8.419741682014491</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001681450841110006</v>
+        <v>1.677727634206485</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.419741682014491</v>
+        <v>0.01192014970868125</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.677727634206485</v>
+        <v>2.94900659137486</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01192014970868125</v>
+        <v>0.9617023291100161</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.94900659137486</v>
+        <v>1.589541554149054</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9617023291100161</v>
+        <v>44</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.589541554149054</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1945698854093922</v>
       </c>
     </row>
@@ -5145,72 +5109,66 @@
         <v>6.66671526300305e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3090793269463223</v>
+        <v>2.395449126294067e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8612178589197428</v>
+        <v>4.676710994328531e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.395449126294067e-07</v>
+        <v>-0.001457170351323782</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.676710994328531e-06</v>
+        <v>0.2606453722254558</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.001457170351323782</v>
+        <v>0.06784774245444053</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2606453722254558</v>
+        <v>1.85840827781748</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06784774245444053</v>
+        <v>1.799380761126802</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.832727685065408</v>
+        <v>3.874655512007546</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.799380761126802</v>
+        <v>6.438661913344614e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.874655512007546</v>
+        <v>64361890.36942302</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.438661913344614e-15</v>
+        <v>1.850373030072889e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>64361890.36942302</v>
+        <v>26.67185392061227</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.850373030072889e-06</v>
+        <v>0.0001564318960819218</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>26.67185392061227</v>
+        <v>9.758107987182626</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001564318960819218</v>
+        <v>1.229223133661385</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.758107987182626</v>
+        <v>0.014895550187299</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.229223133661385</v>
+        <v>2.841734000498696</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.014895550187299</v>
+        <v>0.9624189488278182</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.841734000498696</v>
+        <v>1.607805439197075</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9624189488278182</v>
+        <v>44</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.607805439197075</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1956013157320795</v>
       </c>
     </row>
@@ -5225,72 +5183,66 @@
         <v>6.651746632921084e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2822807443939913</v>
+        <v>2.395449126294067e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8573250750284624</v>
+        <v>4.675988218246747e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.395449126294067e-07</v>
+        <v>-0.0186656598481399</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.675988218246747e-06</v>
+        <v>0.2294064481556637</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0186656598481399</v>
+        <v>0.05294306424645702</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2294064481556637</v>
+        <v>1.860174563111437</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05294306424645702</v>
+        <v>1.774653125392059</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.836488604839163</v>
+        <v>3.891952773754977</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.774653125392059</v>
+        <v>6.381557554860659e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.891952773754977</v>
+        <v>66902688.93480445</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.381557554860659e-15</v>
+        <v>1.774047876301957e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>66902688.93480445</v>
+        <v>28.56365880768942</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.774047876301957e-06</v>
+        <v>0.000155745465805589</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>28.56365880768942</v>
+        <v>10.54237816956602</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000155745465805589</v>
+        <v>1.094239004834832</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.54237816956602</v>
+        <v>0.01730982167272978</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.094239004834832</v>
+        <v>2.606774722052451</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01730982167272978</v>
+        <v>0.9619038572002654</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.606774722052451</v>
+        <v>1.57527343454723</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9619038572002654</v>
+        <v>44</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.57527343454723</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1976460923746299</v>
       </c>
     </row>
@@ -5305,72 +5257,66 @@
         <v>6.570806837750901e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.2525386809711506</v>
+        <v>2.395449126294067e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8169888953978282</v>
+        <v>4.674414198868587e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.395449126294067e-07</v>
+        <v>-0.02766896000323068</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.674414198868587e-06</v>
+        <v>0.2211799706440386</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02766896000323068</v>
+        <v>0.04967885944350085</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2211799706440386</v>
+        <v>1.864541262230512</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04967885944350085</v>
+        <v>1.756475274898922</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.84083798757961</v>
+        <v>3.920989496888783</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.756475274898922</v>
+        <v>6.2873908114296e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.920989496888783</v>
+        <v>67747847.4405857</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.2873908114296e-15</v>
+        <v>1.758076938210739e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>67747847.4405857</v>
+        <v>28.857682960921</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.758076938210739e-06</v>
+        <v>0.0001529223659764199</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>28.857682960921</v>
+        <v>9.837616120995774</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001529223659764199</v>
+        <v>1.137773824371373</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.837616120995774</v>
+        <v>0.01479962639526881</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.137773824371373</v>
+        <v>2.701397506616107</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01479962639526881</v>
+        <v>0.9626536137614737</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.701397506616107</v>
+        <v>1.581060672531752</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9626536137614737</v>
+        <v>44</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.581060672531752</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1960743806909349</v>
       </c>
     </row>
@@ -5385,72 +5331,66 @@
         <v>6.429065364942056e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2519999201384445</v>
+        <v>2.395449126294067e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7712411315721583</v>
+        <v>4.672490004619575e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.395449126294067e-07</v>
+        <v>-0.03059537731713354</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.672490004619575e-06</v>
+        <v>0.2240881268429308</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03059537731713354</v>
+        <v>0.05114966749672353</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2240881268429308</v>
+        <v>1.861337300150117</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05114966749672353</v>
+        <v>1.778806692895049</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.836370917423881</v>
+        <v>3.904434398463483</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.778806692895049</v>
+        <v>6.340821876921742e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.904434398463483</v>
+        <v>67200052.69843936</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.340821876921742e-15</v>
+        <v>1.770714967096764e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>67200052.69843936</v>
+        <v>28.63418197464635</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.770714967096764e-06</v>
+        <v>0.0001520816632295388</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>28.63418197464635</v>
+        <v>8.861436595907161</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001520816632295388</v>
+        <v>1.245371292771147</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.861436595907161</v>
+        <v>0.01194222150845934</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.245371292771147</v>
+        <v>2.843105985865148</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01194222150845934</v>
+        <v>0.9621732350149486</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.843105985865148</v>
+        <v>1.585118519779929</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9621732350149486</v>
+        <v>44</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.585118519779929</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2017889979965476</v>
       </c>
     </row>
@@ -5465,72 +5405,66 @@
         <v>6.254608644057922e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2842489245718088</v>
+        <v>2.394436830867209e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7383497963775834</v>
+        <v>4.670586354090057e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.394436830867209e-07</v>
+        <v>-0.02857037701645979</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.670586354090057e-06</v>
+        <v>0.2323442512660507</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.02857037701645979</v>
+        <v>0.05479444092320582</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2323442512660507</v>
+        <v>1.865402036445984</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05479444092320582</v>
+        <v>1.770120190282678</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.834146479919802</v>
+        <v>3.766732285585231</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.770120190282678</v>
+        <v>6.812904557741589e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.766732285585231</v>
+        <v>62701687.73022355</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.812904557741589e-15</v>
+        <v>1.901400524893316e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>62701687.73022355</v>
+        <v>26.78494547066455</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.901400524893316e-06</v>
+        <v>0.0001682219300243181</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>26.78494547066455</v>
+        <v>8.689405810761611</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001682219300243181</v>
+        <v>1.464180345932244</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.689405810761611</v>
+        <v>0.01270172691992282</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.464180345932244</v>
+        <v>2.878296850351096</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01270172691992282</v>
+        <v>0.962596385452034</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.878296850351096</v>
+        <v>1.571133338549075</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.962596385452034</v>
+        <v>44</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.571133338549075</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2239172702786746</v>
       </c>
     </row>
@@ -5545,72 +5479,66 @@
         <v>6.079427904349958e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.3448331646768043</v>
+        <v>2.353924599210604e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.7215961154558368</v>
+        <v>4.669011789440922e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.353924599210604e-07</v>
+        <v>-0.02157276579058344</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.669011789440922e-06</v>
+        <v>0.2453807059403652</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02157276579058344</v>
+        <v>0.06066027347322526</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2453807059403652</v>
+        <v>1.86905978539713</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.06066027347322526</v>
+        <v>1.721706907900024</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.838162378993845</v>
+        <v>3.710411281121901</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.721706907900024</v>
+        <v>7.261485954027158e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.710411281121901</v>
+        <v>59311095.88732502</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.261485954027158e-15</v>
+        <v>2.012230316484258e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>59311095.88732502</v>
+        <v>25.54449955041482</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.012230316484258e-06</v>
+        <v>0.0001958657957542237</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>25.54449955041482</v>
+        <v>10.59803875803967</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001958657957542237</v>
+        <v>1.276460589079387</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.59803875803967</v>
+        <v>0.0219993377917313</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.276460589079387</v>
+        <v>2.711953357918448</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0219993377917313</v>
+        <v>0.9621248835715049</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.711953357918448</v>
+        <v>1.569411235558553</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9621248835715049</v>
+        <v>44</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.569411235558553</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3057986417008249</v>
       </c>
     </row>
@@ -5625,72 +5553,66 @@
         <v>5.949782643520197e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.413111128030593</v>
+        <v>2.26709248930799e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7301311627945828</v>
+        <v>4.668049594044437e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.26709248930799e-07</v>
+        <v>-0.009594870074888621</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.668049594044437e-06</v>
+        <v>0.2626135491083372</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.009594870074888621</v>
+        <v>0.06902665492426237</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2626135491083372</v>
+        <v>1.858600248603951</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.06902665492426237</v>
+        <v>1.726640977916381</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.825781692139515</v>
+        <v>3.716371780339262</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.726640977916381</v>
+        <v>7.23821197879524e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.716371780339262</v>
+        <v>59079800.93147626</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>7.23821197879524e-15</v>
+        <v>2.014841035367415e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>59079800.93147626</v>
+        <v>25.2644206873451</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.014841035367415e-06</v>
+        <v>0.000236077272237848</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>25.2644206873451</v>
+        <v>14.24992011083362</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000236077272237848</v>
+        <v>0.9569831991067795</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>14.24992011083362</v>
+        <v>0.04793790358483505</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.9569831991067795</v>
+        <v>2.211766972745786</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.04793790358483505</v>
+        <v>0.9622838177084809</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.211766972745786</v>
+        <v>1.600428413142012</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9622838177084809</v>
+        <v>44</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.600428413142012</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.474903892363967</v>
       </c>
     </row>
@@ -5705,72 +5627,66 @@
         <v>5.925022943900162e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.4295627702778608</v>
+        <v>2.29108870414988e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.7369007719258951</v>
+        <v>4.667886718649435e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.29108870414988e-07</v>
+        <v>0.003721170302241616</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.667886718649435e-06</v>
+        <v>0.2748245206862107</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.003721170302241616</v>
+        <v>0.07552383418925458</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2748245206862107</v>
+        <v>1.844601541721092</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.07552383418925458</v>
+        <v>1.791056067565522</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.806694735848079</v>
+        <v>3.766303669812807</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.791056067565522</v>
+        <v>8.009132298421439e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.766303669812807</v>
+        <v>53486674.35700362</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>8.009132298421439e-15</v>
+        <v>2.216969716483325e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>53486674.35700362</v>
+        <v>22.91272057172451</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.216969716483325e-06</v>
+        <v>0.00025749562002466</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>22.91272057172451</v>
+        <v>12.61243116799261</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.00025749562002466</v>
+        <v>1.19521608152015</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.61243116799261</v>
+        <v>0.0409607089039363</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.19521608152015</v>
+        <v>2.40253597673615</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0409607089039363</v>
+        <v>0.9623355602245025</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.40253597673615</v>
+        <v>1.583141089602607</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9623355602245025</v>
+        <v>42</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.583141089602607</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4751915241283229</v>
       </c>
     </row>
@@ -5785,72 +5701,66 @@
         <v>6.013433712694936e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.3575252334181017</v>
+        <v>2.489201111309259e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.6683010828907765</v>
+        <v>4.668383939495808e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.489201111309259e-07</v>
+        <v>0.01194226824965503</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.668383939495808e-06</v>
+        <v>0.2732224342821838</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01194226824965503</v>
+        <v>0.07478940813749485</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2732224342821838</v>
+        <v>1.852326459333859</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.07478940813749485</v>
+        <v>1.69792113534445</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.813191813050269</v>
+        <v>3.724793124110546</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.69792113534445</v>
+        <v>8.446772054531058e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.724793124110546</v>
+        <v>51162884.8703919</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>8.446772054531058e-15</v>
+        <v>2.322316344172619e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>51162884.8703919</v>
+        <v>22.11061505908347</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.322316344172619e-06</v>
+        <v>0.0002497225465176029</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>22.11061505908347</v>
+        <v>10.0018463368261</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002497225465176029</v>
+        <v>1.662679563775811</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.0018463368261</v>
+        <v>0.02498147694173326</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.662679563775811</v>
+        <v>2.661569537809334</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02498147694173326</v>
+        <v>0.9600511804337556</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.661569537809334</v>
+        <v>1.596916762073996</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9600511804337556</v>
+        <v>42</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.596916762073996</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2937732505350617</v>
       </c>
     </row>
@@ -5865,72 +5775,66 @@
         <v>6.161392210359801e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.2473462000770399</v>
+        <v>2.546100915861395e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.5690099167202511</v>
+        <v>4.669230807638039e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.546100915861395e-07</v>
+        <v>0.01529585816828613</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.669230807638039e-06</v>
+        <v>0.2662967497486894</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.01529585816828613</v>
+        <v>0.07114712789039714</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2662967497486894</v>
+        <v>1.852279151451146</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.07114712789039714</v>
+        <v>1.806825431197622</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.811340930435358</v>
+        <v>3.902883426488716</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.806825431197622</v>
+        <v>7.693499481445929e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.902883426488716</v>
+        <v>56288214.65431266</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7.693499481445929e-15</v>
+        <v>2.111117502761924e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>56288214.65431266</v>
+        <v>24.37579993589294</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.111117502761924e-06</v>
+        <v>0.0001741195098956768</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>24.37579993589294</v>
+        <v>9.854387005822771</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001741195098956768</v>
+        <v>1.318723236598902</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.854387005822771</v>
+        <v>0.01690856160701034</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.318723236598902</v>
+        <v>2.851217678121846</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01690856160701034</v>
+        <v>0.9601844025854958</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.851217678121846</v>
+        <v>1.639264596629449</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9601844025854958</v>
+        <v>42</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.639264596629449</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.228206026999397</v>
       </c>
     </row>
@@ -5945,72 +5849,66 @@
         <v>6.325348647569384e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1459131656358308</v>
+        <v>2.548232614741335e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5050471374918137</v>
+        <v>4.670224402420033e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.548232614741335e-07</v>
+        <v>0.01625451927462296</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.670224402420033e-06</v>
+        <v>0.2590520258723683</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.01625451927462296</v>
+        <v>0.06737173319500367</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2590520258723683</v>
+        <v>1.849886587850172</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.06737173319500367</v>
+        <v>1.90150269048016</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.808844253983192</v>
+        <v>3.996536261657563</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.90150269048016</v>
+        <v>7.337152954246284e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.996536261657563</v>
+        <v>58606797.79126382</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>7.337152954246284e-15</v>
+        <v>2.028193170595939e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>58606797.79126382</v>
+        <v>25.20133561590769</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.028193170595939e-06</v>
+        <v>0.0001525522394569149</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>25.20133561590769</v>
+        <v>10.27837262437643</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001525522394569149</v>
+        <v>1.128885157087553</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.27837262437643</v>
+        <v>0.01611637276483366</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.128885157087553</v>
+        <v>2.749040247697513</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01611637276483366</v>
+        <v>0.9601921924045242</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.749040247697513</v>
+        <v>1.628252080188558</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9601921924045242</v>
+        <v>42</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.628252080188558</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2168723550482534</v>
       </c>
     </row>
@@ -6025,72 +5923,66 @@
         <v>6.486983025687475e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.0668246345175347</v>
+        <v>2.548232614741335e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.4879003211401152</v>
+        <v>4.671276800762126e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.548232614741335e-07</v>
+        <v>0.01668206928141082</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.671276800762126e-06</v>
+        <v>0.2523297076083397</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.01668206928141082</v>
+        <v>0.06394765283667979</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2523297076083397</v>
+        <v>1.844973727964109</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.06394765283667979</v>
+        <v>1.933181063225806</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.805369990453516</v>
+        <v>4.038964541704995</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.933181063225806</v>
+        <v>7.183812810050188e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.038964541704995</v>
+        <v>59446644.95628805</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>7.183812810050188e-15</v>
+        <v>1.993853558493566e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>59446644.95628805</v>
+        <v>25.38690192644275</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.993853558493566e-06</v>
+        <v>0.0001478375862043446</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>25.38690192644275</v>
+        <v>9.936235131490575</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001478375862043446</v>
+        <v>1.167435388647269</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.936235131490575</v>
+        <v>0.01459582283701679</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.167435388647269</v>
+        <v>2.717275923565491</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01459582283701679</v>
+        <v>0.9592816766062298</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.717275923565491</v>
+        <v>1.624038924456297</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9592816766062298</v>
+        <v>49</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.624038924456297</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2143834614686377</v>
       </c>
     </row>
@@ -6467,7 +6359,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.385291261553808</v>
+        <v>1.358310459222917</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.000012342647478</v>
@@ -6556,7 +6448,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.38450258888507</v>
+        <v>1.347986879480795</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.015079439303415</v>
@@ -6645,7 +6537,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.351851189571025</v>
+        <v>1.319679509469728</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.145145741950749</v>
@@ -6734,7 +6626,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.35350739538057</v>
+        <v>1.323389480664514</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.918351638103131</v>
@@ -6823,7 +6715,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.377528260531756</v>
+        <v>1.347661701574928</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.099555544070906</v>
@@ -6912,7 +6804,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.381427232368306</v>
+        <v>1.352285171404418</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.219594240004144</v>
@@ -7001,7 +6893,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39558461814476</v>
+        <v>1.364212741128256</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.160929666393637</v>
@@ -7090,7 +6982,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.39677130716807</v>
+        <v>1.367311444141672</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.105568455146603</v>
@@ -7179,7 +7071,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.394362751465193</v>
+        <v>1.370263224804137</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.121917035951025</v>
@@ -7268,7 +7160,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.388609668022843</v>
+        <v>1.366695511269598</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.057084114585841</v>
@@ -7357,7 +7249,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.396309848852518</v>
+        <v>1.373961694201657</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.058427945998999</v>
@@ -7446,7 +7338,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.438387388297044</v>
+        <v>1.412220496969446</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.06293180347096</v>
@@ -7535,7 +7427,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.438784576986428</v>
+        <v>1.415923105900669</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.995974383951999</v>
@@ -7624,7 +7516,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.441859947621026</v>
+        <v>1.426747149137376</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.064428191740301</v>
@@ -7713,7 +7605,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.443037296856156</v>
+        <v>1.432107978120434</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.99021158658041</v>
@@ -7802,7 +7694,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.434702209797984</v>
+        <v>1.427054049658208</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.987382071403391</v>
@@ -7891,7 +7783,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.482182828670527</v>
+        <v>1.487712225553066</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.887807713108595</v>
@@ -7980,7 +7872,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615360515160761</v>
+        <v>1.619485563167501</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.547570934939823</v>
@@ -8069,7 +7961,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.627606768924454</v>
+        <v>1.623919940808972</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.556673840454236</v>
@@ -8158,7 +8050,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.639666102196129</v>
+        <v>1.642695247093251</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.073714454423652</v>
@@ -8247,7 +8139,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.612017878054116</v>
+        <v>1.622058611665143</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.224858672978486</v>
@@ -8336,7 +8228,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.630737249139197</v>
+        <v>1.640485775847275</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.768321807036306</v>
@@ -8425,7 +8317,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.633212805319284</v>
+        <v>1.646221379976033</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.191487371754889</v>
@@ -8514,7 +8406,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.633550602334679</v>
+        <v>1.642571623474342</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.076247623685533</v>
@@ -8603,7 +8495,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.642121164379767</v>
+        <v>1.653974521237353</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.737278154535274</v>
@@ -8692,7 +8584,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.651392513098068</v>
+        <v>1.661533938015759</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.070141846894293</v>
@@ -8781,7 +8673,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.624540120500553</v>
+        <v>1.635314241081546</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.857446525185837</v>
@@ -8870,7 +8762,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.61483939926137</v>
+        <v>1.623421037597316</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.196234662172956</v>
@@ -8959,7 +8851,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.608847051432385</v>
+        <v>1.615249938764806</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.842838335372034</v>
@@ -9048,7 +8940,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592872825925968</v>
+        <v>1.600541056625606</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.182579358302033</v>
@@ -9137,7 +9029,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.614608009646534</v>
+        <v>1.617101922609696</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.998258165694913</v>
@@ -9226,7 +9118,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.612270349058761</v>
+        <v>1.611748474714272</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.668517595381468</v>
@@ -9315,7 +9207,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.611044772494188</v>
+        <v>1.609120011417241</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.901283762100055</v>
@@ -9404,7 +9296,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603858415011516</v>
+        <v>1.603452473759916</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.628665208385138</v>
@@ -9493,7 +9385,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.547061562638089</v>
+        <v>1.557732518015939</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.403248265793464</v>
@@ -9582,7 +9474,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.550887671414511</v>
+        <v>1.560608972920267</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.411924939575789</v>
@@ -9671,7 +9563,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.55092924687694</v>
+        <v>1.559089187223407</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.413899901680048</v>
@@ -9760,7 +9652,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.533614638728456</v>
+        <v>1.539801716157037</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.421579048044776</v>
@@ -9849,7 +9741,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.538577550240779</v>
+        <v>1.547330505935065</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.414899027795481</v>
@@ -9938,7 +9830,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.542773236867788</v>
+        <v>1.54747869896599</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.407655716125827</v>
@@ -10027,7 +9919,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.553707282497581</v>
+        <v>1.556348706045842</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.350810050901714</v>
@@ -10116,7 +10008,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.573175049054453</v>
+        <v>1.576970158019037</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.360788848187108</v>
@@ -10205,7 +10097,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.57930497880799</v>
+        <v>1.580468625951764</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.385523277378</v>
@@ -10294,7 +10186,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.584522671498336</v>
+        <v>1.584160739418823</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.337753839758787</v>
@@ -10383,7 +10275,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.60309819769915</v>
+        <v>1.599759981985644</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.432355101438874</v>
@@ -10472,7 +10364,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.600592167692193</v>
+        <v>1.602219358741619</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.393884565884426</v>
@@ -10561,7 +10453,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.590643471256887</v>
+        <v>1.593328071883602</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.448553567690135</v>
@@ -10650,7 +10542,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.593005877394844</v>
+        <v>1.600045538398011</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.417150674197028</v>
@@ -10739,7 +10631,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.637641643287425</v>
+        <v>1.632775536165597</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.529170958475462</v>
@@ -10828,7 +10720,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.683477836952843</v>
+        <v>1.665342399052841</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.269179650785894</v>
@@ -10917,7 +10809,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.710604740284365</v>
+        <v>1.687427417918564</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.007111546639362</v>
@@ -11006,7 +10898,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.69493431812985</v>
+        <v>1.674787026676809</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.838535173833518</v>
@@ -11095,7 +10987,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.707373923305898</v>
+        <v>1.682265248645583</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.422614515124718</v>
@@ -11184,7 +11076,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.715526560231346</v>
+        <v>1.686092658244491</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.786591685437497</v>
@@ -11273,7 +11165,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.717123616517343</v>
+        <v>1.686503283372755</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.219486784549352</v>
@@ -11362,7 +11254,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.69917669265697</v>
+        <v>1.676305902013459</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.989673890513004</v>
@@ -11451,7 +11343,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.702258477013693</v>
+        <v>1.678866035538352</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.5283590203404</v>
@@ -11540,7 +11432,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.68832126030251</v>
+        <v>1.676489887480633</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.447860281505631</v>
@@ -11629,7 +11521,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.688628484304386</v>
+        <v>1.672926544706698</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.944663104067073</v>
@@ -11718,7 +11610,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.673777878660242</v>
+        <v>1.653664658927288</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.137754330638288</v>
@@ -11807,7 +11699,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.678106665041499</v>
+        <v>1.657880223449736</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.352285591312312</v>
@@ -12093,7 +11985,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.353100387632001</v>
+        <v>1.331343721488461</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.964722887732282</v>
@@ -12182,7 +12074,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.356363598796873</v>
+        <v>1.32542469075086</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.002569754226837</v>
@@ -12271,7 +12163,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.325895754421105</v>
+        <v>1.298782327620026</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.108780371366359</v>
@@ -12360,7 +12252,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.328406920735347</v>
+        <v>1.303244001448467</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.894246424060551</v>
@@ -12449,7 +12341,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.354007007875105</v>
+        <v>1.330476002264375</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.041981417126162</v>
@@ -12538,7 +12430,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.356366260476404</v>
+        <v>1.332914091273705</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.166156741081467</v>
@@ -12627,7 +12519,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.375053181377905</v>
+        <v>1.348596134492648</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.087184615118948</v>
@@ -12716,7 +12608,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.374937698193979</v>
+        <v>1.35135978146946</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.045982640702992</v>
@@ -12805,7 +12697,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.370469480965485</v>
+        <v>1.350285461710032</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.056396290133606</v>
@@ -12894,7 +12786,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.359699910436826</v>
+        <v>1.342473917546379</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.978795088627498</v>
@@ -12983,7 +12875,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.365331683560822</v>
+        <v>1.347861221063588</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.985009605076852</v>
@@ -13072,7 +12964,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.402899215774233</v>
+        <v>1.384197043074996</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.974059967192106</v>
@@ -13161,7 +13053,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.406434933013153</v>
+        <v>1.384528591428259</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.920008325788118</v>
@@ -13250,7 +13142,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.389417699471517</v>
+        <v>1.369275753140231</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.919801437581686</v>
@@ -13339,7 +13231,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.377734221482289</v>
+        <v>1.355655020578878</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.884319393631375</v>
@@ -13428,7 +13320,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.361775284078802</v>
+        <v>1.341001275279743</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.856147630121063</v>
@@ -13517,7 +13409,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.394590810530155</v>
+        <v>1.384516873608182</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.749651092862793</v>
@@ -13606,7 +13498,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.540247447211731</v>
+        <v>1.531356229502002</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.297056300220243</v>
@@ -13695,7 +13587,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.533676061956968</v>
+        <v>1.514593777182567</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.292655290896752</v>
@@ -13784,7 +13676,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.516648044473981</v>
+        <v>1.504238198616869</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.762378493019801</v>
@@ -13873,7 +13765,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.492038263282718</v>
+        <v>1.480684962103412</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.50259562693656</v>
@@ -13962,7 +13854,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.482612249570403</v>
+        <v>1.474210102243861</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.542308241379283</v>
@@ -14051,7 +13943,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.472608413993602</v>
+        <v>1.461681331670572</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.417588402057105</v>
@@ -14140,7 +14032,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.479590587463504</v>
+        <v>1.467916692867166</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.494389798761053</v>
@@ -14229,7 +14121,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.48852342469157</v>
+        <v>1.475970493311549</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.229497766002021</v>
@@ -14318,7 +14210,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.495551563301655</v>
+        <v>1.479471322967935</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.32526956485188</v>
@@ -14407,7 +14299,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.474103444710637</v>
+        <v>1.462470859617419</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.37299272803428</v>
@@ -14496,7 +14388,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.45946771598719</v>
+        <v>1.442199709983937</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.441140001192273</v>
@@ -14585,7 +14477,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.467918011298215</v>
+        <v>1.448708588259976</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.312481929379675</v>
@@ -14674,7 +14566,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.475250187576626</v>
+        <v>1.458048724611862</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.522081578124824</v>
@@ -14763,7 +14655,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.496942116068656</v>
+        <v>1.477373158764922</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.303799347574341</v>
@@ -14852,7 +14744,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.493374188749405</v>
+        <v>1.474238613143459</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.358471574893171</v>
@@ -14941,7 +14833,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.492413518787696</v>
+        <v>1.471078623273473</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.505506335737601</v>
@@ -15030,7 +14922,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.501731238544783</v>
+        <v>1.473898097388445</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.128487993689693</v>
@@ -15119,7 +15011,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.447217726879118</v>
+        <v>1.437103712593648</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.243474544511252</v>
@@ -15208,7 +15100,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.477791264547154</v>
+        <v>1.468419461808646</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.212225011283655</v>
@@ -15297,7 +15189,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.48781627036242</v>
+        <v>1.475862694187248</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.209912681919911</v>
@@ -15386,7 +15278,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.476636739920702</v>
+        <v>1.462382014778042</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.224463870706757</v>
@@ -15475,7 +15367,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.474607429029955</v>
+        <v>1.460333001444972</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.179565799194903</v>
@@ -15564,7 +15456,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.480102174917876</v>
+        <v>1.46421064589792</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.21004888890238</v>
@@ -15653,7 +15545,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.488944472784331</v>
+        <v>1.470342766172426</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.141779171102163</v>
@@ -15742,7 +15634,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.511054598975692</v>
+        <v>1.492394404938421</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.243489292563229</v>
@@ -15831,7 +15723,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.525905136738468</v>
+        <v>1.503692424122765</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.200241907725466</v>
@@ -15920,7 +15812,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.533615733075082</v>
+        <v>1.509474045647963</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.230904386432287</v>
@@ -16009,7 +15901,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.539727192133888</v>
+        <v>1.513740163197495</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.224745731314719</v>
@@ -16098,7 +15990,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.544590932261679</v>
+        <v>1.521476876502964</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.139871821553215</v>
@@ -16187,7 +16079,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.543177687787008</v>
+        <v>1.51910297789502</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.191656858429724</v>
@@ -16276,7 +16168,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.541508453855299</v>
+        <v>1.515444942831337</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.239093435967701</v>
@@ -16365,7 +16257,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.595078532842387</v>
+        <v>1.560158061595921</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.879155967985253</v>
@@ -16454,7 +16346,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.637747553311567</v>
+        <v>1.592867249533049</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.516322164227492</v>
@@ -16543,7 +16435,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.639433149423847</v>
+        <v>1.596598520424992</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.519809931870522</v>
@@ -16632,7 +16524,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.640888455125228</v>
+        <v>1.604191577725003</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.504015160211533</v>
@@ -16721,7 +16613,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.662141890191893</v>
+        <v>1.615992966753752</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.595770411531988</v>
@@ -16810,7 +16702,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.673028040983321</v>
+        <v>1.626310678734032</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.388395295808973</v>
@@ -16899,7 +16791,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.680377670483851</v>
+        <v>1.631587750421742</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.437496770828965</v>
@@ -16988,7 +16880,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.680925649653261</v>
+        <v>1.632291420437485</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.440154609992987</v>
@@ -17077,7 +16969,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.689199670217599</v>
+        <v>1.63570606853166</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.724520044602</v>
@@ -17166,7 +17058,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.698659903549283</v>
+        <v>1.655005845239247</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.479356334377238</v>
@@ -17255,7 +17147,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.681347026994673</v>
+        <v>1.644028394208698</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.250647845586259</v>
@@ -17344,7 +17236,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.672914147925326</v>
+        <v>1.639881193299745</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.099780870553661</v>
@@ -17433,7 +17325,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.661981169711982</v>
+        <v>1.633732680169938</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.421799702683758</v>
@@ -17719,7 +17611,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.357777088776482</v>
+        <v>1.327211703382286</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.984407154761747</v>
@@ -17808,7 +17700,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.356702629139163</v>
+        <v>1.317385077618014</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.014461815417352</v>
@@ -17897,7 +17789,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.331478044619564</v>
+        <v>1.295188708682131</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.134684754490086</v>
@@ -17986,7 +17878,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.334555259394188</v>
+        <v>1.298849560713774</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.896870986553384</v>
@@ -18075,7 +17967,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.360046203137455</v>
+        <v>1.324006198811012</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.077705663858435</v>
@@ -18164,7 +18056,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.36512369020655</v>
+        <v>1.327915167129319</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.198718901436198</v>
@@ -18253,7 +18145,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.385418339149652</v>
+        <v>1.344387750160965</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.160897537466509</v>
@@ -18342,7 +18234,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.384201525341427</v>
+        <v>1.341580248753172</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.12143029595725</v>
@@ -18431,7 +18323,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.381258043247978</v>
+        <v>1.345527162655278</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.105398070090958</v>
@@ -18520,7 +18412,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.373054187303842</v>
+        <v>1.339913991802279</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.052705627893105</v>
@@ -18609,7 +18501,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.377134131017532</v>
+        <v>1.343492291469077</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.009927706575068</v>
@@ -18698,7 +18590,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.419828138741485</v>
+        <v>1.381311789305795</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.021992277750376</v>
@@ -18787,7 +18679,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.418649120347404</v>
+        <v>1.379659998909441</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.965732319264198</v>
@@ -18876,7 +18768,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.412171286960374</v>
+        <v>1.374506418969561</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.003121294419083</v>
@@ -18965,7 +18857,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.407095930644323</v>
+        <v>1.370272906670291</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.952127103375468</v>
@@ -19054,7 +18946,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.396690126211489</v>
+        <v>1.360328408495952</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.924254608378944</v>
@@ -19143,7 +19035,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.440217759554007</v>
+        <v>1.40786853947348</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.821795870904032</v>
@@ -19232,7 +19124,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.58708087571323</v>
+        <v>1.543714899967993</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.262610717556063</v>
@@ -19321,7 +19213,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578335230583823</v>
+        <v>1.527050837784601</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.274989711816452</v>
@@ -19410,7 +19302,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.573951675104744</v>
+        <v>1.533577127137717</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.808739359410614</v>
@@ -19499,7 +19391,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.545929838878861</v>
+        <v>1.515393927819876</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.762151670956227</v>
@@ -19588,7 +19480,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.541238480240222</v>
+        <v>1.511913757647711</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.613993657392382</v>
@@ -19677,7 +19569,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.542736537073166</v>
+        <v>1.519643431508658</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.773802956167991</v>
@@ -19766,7 +19658,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.543313642760666</v>
+        <v>1.51799106738853</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.737359977203601</v>
@@ -19855,7 +19747,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.55739996394361</v>
+        <v>1.527973432302259</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.282771103096605</v>
@@ -19944,7 +19836,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.560598566238996</v>
+        <v>1.531412111892114</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.480861116199298</v>
@@ -20033,7 +19925,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.536119950784534</v>
+        <v>1.509386015457223</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.604924109942408</v>
@@ -20122,7 +20014,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.528828728674689</v>
+        <v>1.504820772316114</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.546457669717757</v>
@@ -20211,7 +20103,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.520108200640218</v>
+        <v>1.499016013041188</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.512978446706339</v>
@@ -20300,7 +20192,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.523928158658327</v>
+        <v>1.498936450070429</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.640514296104052</v>
@@ -20389,7 +20281,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.543698273491755</v>
+        <v>1.515688783523316</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.52752413516047</v>
@@ -20478,7 +20370,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.542327427898107</v>
+        <v>1.516514432666991</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.514925636340066</v>
@@ -20567,7 +20459,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.533954412337846</v>
+        <v>1.506673379952689</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.526320178571461</v>
@@ -20656,7 +20548,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.55476505545263</v>
+        <v>1.523643170264001</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.553608122742669</v>
@@ -20745,7 +20637,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.514085089558181</v>
+        <v>1.486868646400172</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.424225717054495</v>
@@ -20834,7 +20726,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.539172546948638</v>
+        <v>1.509972243327403</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.47276489089728</v>
@@ -20923,7 +20815,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.551429252110642</v>
+        <v>1.520180814083496</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.488025909374121</v>
@@ -21012,7 +20904,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.534125430791407</v>
+        <v>1.501417803382119</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.579833145240835</v>
@@ -21101,7 +20993,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.540195806853035</v>
+        <v>1.507227648644947</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.450710248874052</v>
@@ -21190,7 +21082,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.545199959304523</v>
+        <v>1.514279607747924</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.354669033624995</v>
@@ -21279,7 +21171,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.56075844387836</v>
+        <v>1.528479613797762</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.352860789395307</v>
@@ -21368,7 +21260,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.588829634257399</v>
+        <v>1.554607896503237</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.694837407365827</v>
@@ -21457,7 +21349,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594242883737989</v>
+        <v>1.551361200885601</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.642329632086423</v>
@@ -21546,7 +21438,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.586268078487987</v>
+        <v>1.544335053246649</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.5388388337306</v>
@@ -21635,7 +21527,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.589294282724838</v>
+        <v>1.548944986027179</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.627519570849052</v>
@@ -21724,7 +21616,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.586535217043941</v>
+        <v>1.546210368371637</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.506714337593533</v>
@@ -21813,7 +21705,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.590806158595777</v>
+        <v>1.550695927404254</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.699422853985871</v>
@@ -21902,7 +21794,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.597884716575408</v>
+        <v>1.559523558205173</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.598250309743756</v>
@@ -21991,7 +21883,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.61738811575148</v>
+        <v>1.573293654431637</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.216152844996197</v>
@@ -22080,7 +21972,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.649758998721768</v>
+        <v>1.602219511639743</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.642191440429265</v>
@@ -22169,7 +22061,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657302760221796</v>
+        <v>1.606562172066102</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.60187270765922</v>
@@ -22258,7 +22150,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.634352818876493</v>
+        <v>1.590680915948419</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.640075667343188</v>
@@ -22347,7 +22239,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.650048580319439</v>
+        <v>1.603010891611546</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.93171172103353</v>
@@ -22436,7 +22328,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.650661073892445</v>
+        <v>1.605097901602036</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.451865153178573</v>
@@ -22525,7 +22417,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.652727064181615</v>
+        <v>1.60342776548778</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.68372118040006</v>
@@ -22614,7 +22506,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.643536340956774</v>
+        <v>1.592643895978421</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.611966908680988</v>
@@ -22703,7 +22595,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.647476795248102</v>
+        <v>1.59285339266181</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.82456518449999</v>
@@ -22792,7 +22684,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.658598694722557</v>
+        <v>1.607210907755161</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.503219061359238</v>
@@ -22881,7 +22773,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.657826863866912</v>
+        <v>1.604787864052812</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.242932942624883</v>
@@ -22970,7 +22862,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.647768377817496</v>
+        <v>1.596113663474337</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.535454513807326</v>
@@ -23059,7 +22951,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.647966715835097</v>
+        <v>1.595129699158248</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.145801098614764</v>
@@ -23345,7 +23237,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.341912857602048</v>
+        <v>1.311223800821079</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.970476864172258</v>
@@ -23434,7 +23326,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.344172418203801</v>
+        <v>1.307887631294469</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.008612821376532</v>
@@ -23523,7 +23415,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.318100699925173</v>
+        <v>1.283669559198791</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.132330736129447</v>
@@ -23612,7 +23504,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.320975549131584</v>
+        <v>1.287845117022583</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.893040756287087</v>
@@ -23701,7 +23593,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.344977187393828</v>
+        <v>1.310132551234033</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.064828220406131</v>
@@ -23790,7 +23682,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.343830070288784</v>
+        <v>1.307521501710728</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.203034186389263</v>
@@ -23879,7 +23771,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.363955193845259</v>
+        <v>1.32501672390434</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.148112004146899</v>
@@ -23968,7 +23860,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.361088267822715</v>
+        <v>1.322849791267888</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.087107444801068</v>
@@ -24057,7 +23949,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.358357004985106</v>
+        <v>1.325617223964468</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.104707502290469</v>
@@ -24146,7 +24038,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.351652126867835</v>
+        <v>1.320660251709205</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.040257869566612</v>
@@ -24235,7 +24127,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.35327794770658</v>
+        <v>1.321598797320563</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.982783592002988</v>
@@ -24324,7 +24216,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.392165928308735</v>
+        <v>1.3562651234132</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.020242779935262</v>
@@ -24413,7 +24305,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.39613837405675</v>
+        <v>1.358680738178931</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.968122182448617</v>
@@ -24502,7 +24394,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.390986593003868</v>
+        <v>1.35593499572945</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.016897542255261</v>
@@ -24591,7 +24483,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.390234419834039</v>
+        <v>1.353683095133313</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.976731637386613</v>
@@ -24680,7 +24572,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.379704495328558</v>
+        <v>1.345114566308261</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.943361903936179</v>
@@ -24769,7 +24661,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.41690121767273</v>
+        <v>1.384422500301812</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.839255630984836</v>
@@ -24858,7 +24750,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.540532387070649</v>
+        <v>1.49704690015632</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.275168339834525</v>
@@ -24947,7 +24839,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.540057952070432</v>
+        <v>1.489111372208106</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.304483945566469</v>
@@ -25036,7 +24928,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.535981393766793</v>
+        <v>1.499830848450736</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.78024890300316</v>
@@ -25125,7 +25017,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.509468888522749</v>
+        <v>1.483250878301575</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.570975780508232</v>
@@ -25214,7 +25106,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.51752842405782</v>
+        <v>1.492701101864967</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.754186348695637</v>
@@ -25303,7 +25195,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.518871044421057</v>
+        <v>1.498812026586818</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.727871044652851</v>
@@ -25392,7 +25284,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.527248096576362</v>
+        <v>1.503857843347435</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.778568287410407</v>
@@ -25481,7 +25373,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.5421581533483</v>
+        <v>1.512413295324535</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.296979164347063</v>
@@ -25570,7 +25462,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.552571734309148</v>
+        <v>1.521392862223977</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.617576841908876</v>
@@ -25659,7 +25551,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.530788127579347</v>
+        <v>1.503826185795311</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.734033778707619</v>
@@ -25748,7 +25640,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.524306252835605</v>
+        <v>1.498154800528356</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.580380777170297</v>
@@ -25837,7 +25729,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.526794630093441</v>
+        <v>1.503053561711512</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.680536808415207</v>
@@ -25926,7 +25818,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.534833531543161</v>
+        <v>1.508056970835321</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.641300549822901</v>
@@ -26015,7 +25907,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.553140366724261</v>
+        <v>1.522542571697681</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.605754170312528</v>
@@ -26104,7 +25996,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.56256248092692</v>
+        <v>1.524553165396126</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.536013774383354</v>
@@ -26193,7 +26085,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.556633016999732</v>
+        <v>1.523276921550746</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.679472224906323</v>
@@ -26282,7 +26174,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.576547855648019</v>
+        <v>1.540559887805433</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.689072092842482</v>
@@ -26371,7 +26263,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.543685718903989</v>
+        <v>1.505838367175296</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.531757614774517</v>
@@ -26460,7 +26352,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.583200077587897</v>
+        <v>1.538936941616281</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.445510759046326</v>
@@ -26549,7 +26441,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.58232070625072</v>
+        <v>1.538289249060679</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.572638672815453</v>
@@ -26638,7 +26530,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.566317409843971</v>
+        <v>1.523021409611498</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.53780386832109</v>
@@ -26727,7 +26619,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.562242572156925</v>
+        <v>1.524216363481022</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.599654326949373</v>
@@ -26816,7 +26708,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.568534337149893</v>
+        <v>1.537170956415187</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.595616671025305</v>
@@ -26905,7 +26797,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.583525286686406</v>
+        <v>1.547851198054579</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.383211272142918</v>
@@ -26994,7 +26886,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.609917923675812</v>
+        <v>1.573753390057087</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.737567476104432</v>
@@ -27083,7 +26975,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.618483114915188</v>
+        <v>1.575096261251443</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.76813972004844</v>
@@ -27172,7 +27064,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.618464530262435</v>
+        <v>1.569021529754784</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.553525463305039</v>
@@ -27261,7 +27153,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.618466984286252</v>
+        <v>1.572055022871141</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.766374518781869</v>
@@ -27350,7 +27242,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618284468983491</v>
+        <v>1.577281652882888</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.739536571395175</v>
@@ -27439,7 +27331,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.613412648347369</v>
+        <v>1.573627045844592</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.616069325442075</v>
@@ -27528,7 +27420,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.622300005171279</v>
+        <v>1.577166984153274</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.595417945527592</v>
@@ -27617,7 +27509,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.6324814377316</v>
+        <v>1.580955415446936</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.282147252898997</v>
@@ -27706,7 +27598,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.660949268473761</v>
+        <v>1.611608175411384</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.889447944947549</v>
@@ -27795,7 +27687,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.652214253946903</v>
+        <v>1.601809044091226</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.871548193177316</v>
@@ -27884,7 +27776,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.638895025967085</v>
+        <v>1.59174840681415</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.79462746476366</v>
@@ -27973,7 +27865,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.657967518776471</v>
+        <v>1.603918353508297</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.049037856407419</v>
@@ -28062,7 +27954,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.65481821406149</v>
+        <v>1.596061082587105</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.863210231738419</v>
@@ -28151,7 +28043,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.643938114697382</v>
+        <v>1.583696335059253</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.025959348025548</v>
@@ -28240,7 +28132,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.650149908290878</v>
+        <v>1.588367676804084</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.07087426690795</v>
@@ -28329,7 +28221,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.647607744679374</v>
+        <v>1.577103892864941</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.089191684994065</v>
@@ -28418,7 +28310,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.652715316548482</v>
+        <v>1.585196262510102</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.739158929390107</v>
@@ -28507,7 +28399,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.65180394733198</v>
+        <v>1.591782562668558</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.150821266596951</v>
@@ -28596,7 +28488,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.640032591545546</v>
+        <v>1.577500811103104</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.11908431615802</v>
@@ -28685,7 +28577,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.633766949976342</v>
+        <v>1.57552060260422</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.747916859853603</v>
@@ -28971,7 +28863,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.309620731421451</v>
+        <v>1.280753890423535</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.920630374107229</v>
@@ -29060,7 +28952,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.318162187045908</v>
+        <v>1.279890999753862</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.959421024760962</v>
@@ -29149,7 +29041,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.29158305513456</v>
+        <v>1.257148399478698</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.071271744084651</v>
@@ -29238,7 +29130,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.292519136950151</v>
+        <v>1.259633617814116</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.850520753058658</v>
@@ -29327,7 +29219,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.308157644396093</v>
+        <v>1.274565671421778</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.983219663834501</v>
@@ -29416,7 +29308,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.303471756146111</v>
+        <v>1.268616270999849</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.087216504505209</v>
@@ -29505,7 +29397,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.314128623064726</v>
+        <v>1.277173915850465</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.003466141132814</v>
@@ -29594,7 +29486,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.302295700169208</v>
+        <v>1.266323899767091</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.926109161171944</v>
@@ -29683,7 +29575,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.292144435380391</v>
+        <v>1.258866248983568</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.94441732022834</v>
@@ -29772,7 +29664,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.27378721296448</v>
+        <v>1.240872248267837</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.860664573190496</v>
@@ -29861,7 +29753,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.274676663532897</v>
+        <v>1.240139993821282</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.856332141100002</v>
@@ -29950,7 +29842,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.303285046336123</v>
+        <v>1.26726711851289</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.832145016393217</v>
@@ -30039,7 +29931,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.30166949587418</v>
+        <v>1.262953806806822</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.763696067148975</v>
@@ -30128,7 +30020,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.28676267681946</v>
+        <v>1.249908244809478</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.755849154632133</v>
@@ -30217,7 +30109,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.267986797141218</v>
+        <v>1.228983222537515</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.720714495892712</v>
@@ -30306,7 +30198,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.237819237730861</v>
+        <v>1.196342599613863</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.674096385594268</v>
@@ -30395,7 +30287,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.212550963093962</v>
+        <v>1.180095550793401</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.514806011826275</v>
@@ -30484,7 +30376,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.295200977979482</v>
+        <v>1.269408495991331</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.760442811574243</v>
@@ -30573,7 +30465,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.276562899324335</v>
+        <v>1.231896309096097</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.736774393199557</v>
@@ -30662,7 +30554,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.19963016774532</v>
+        <v>1.171475314543825</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.853656191187426</v>
@@ -30751,7 +30643,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.173266617606632</v>
+        <v>1.144779447626208</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.853465156313066</v>
@@ -30840,7 +30732,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.16741573147507</v>
+        <v>1.140458476264168</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.864559900655793</v>
@@ -30929,7 +30821,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.166539131028014</v>
+        <v>1.139529613566425</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.879062162239768</v>
@@ -31018,7 +30910,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.166874877980097</v>
+        <v>1.139056332435747</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.864845879531054</v>
@@ -31107,7 +30999,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.172406468000372</v>
+        <v>1.148117859812556</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.641279333582539</v>
@@ -31196,7 +31088,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.17794214625466</v>
+        <v>1.155196314609765</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.756677493346259</v>
@@ -31285,7 +31177,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.158413354363807</v>
+        <v>1.133071864886179</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.836639622984096</v>
@@ -31374,7 +31266,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.157163307249783</v>
+        <v>1.128327309862123</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.893542986347075</v>
@@ -31463,7 +31355,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.142671096489893</v>
+        <v>1.117971685274275</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.893677970588287</v>
@@ -31552,7 +31444,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.143604864132853</v>
+        <v>1.121449757703452</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.838180131606296</v>
@@ -31641,7 +31533,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.144802033103304</v>
+        <v>1.128549327975404</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.797055570123746</v>
@@ -31730,7 +31622,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.144249623005679</v>
+        <v>1.128615843217363</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.796972187990709</v>
@@ -31819,7 +31711,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.147420067935311</v>
+        <v>1.131225801399611</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.82819947925143</v>
@@ -31908,7 +31800,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.157312737375825</v>
+        <v>1.142483044010534</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.744589311862308</v>
@@ -31997,7 +31889,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.150115855271435</v>
+        <v>1.133391141643477</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.742603127084507</v>
@@ -32086,7 +31978,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.169964061353935</v>
+        <v>1.156315079354964</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.688202672821348</v>
@@ -32175,7 +32067,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.179305859982005</v>
+        <v>1.164913914327344</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.74108980017641</v>
@@ -32264,7 +32156,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.166520501200389</v>
+        <v>1.150987637599888</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.779875890706474</v>
@@ -32353,7 +32245,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.166944979763824</v>
+        <v>1.152614948987507</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.788086194936453</v>
@@ -32442,7 +32334,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.168909098388788</v>
+        <v>1.15459552085667</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.778362134606583</v>
@@ -32531,7 +32423,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.185854031836513</v>
+        <v>1.170641019416188</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.639490242578936</v>
@@ -32620,7 +32512,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.213397954541571</v>
+        <v>1.204681712501227</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.741210466869822</v>
@@ -32709,7 +32601,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.233772805645027</v>
+        <v>1.2176680469577</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.696890895965818</v>
@@ -32798,7 +32690,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.242745641968219</v>
+        <v>1.225938662795266</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.657146886367589</v>
@@ -32887,7 +32779,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.245130881968936</v>
+        <v>1.228390764450238</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.670253512410746</v>
@@ -32976,7 +32868,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.246368248845082</v>
+        <v>1.232455066722595</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.667168708034132</v>
@@ -33065,7 +32957,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.247369900754948</v>
+        <v>1.234141214388885</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.670190473851893</v>
@@ -33154,7 +33046,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.248620421490832</v>
+        <v>1.232482338714795</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.672261459729458</v>
@@ -33243,7 +33135,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.288732482131521</v>
+        <v>1.269208369064166</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.592583001425571</v>
@@ -33332,7 +33224,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.371007395128454</v>
+        <v>1.351888536752043</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.59696429609133</v>
@@ -33421,7 +33313,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.364739815649788</v>
+        <v>1.344082507860502</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.599635374321219</v>
@@ -33510,7 +33402,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.34169395633698</v>
+        <v>1.318994064141262</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.667490041315829</v>
@@ -33599,7 +33491,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.416574559381401</v>
+        <v>1.390205531611331</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.608875057171758</v>
@@ -33688,7 +33580,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.419249041242276</v>
+        <v>1.391184649283243</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.586436242934082</v>
@@ -33777,7 +33669,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.415058006559802</v>
+        <v>1.387729479702677</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.592523042665558</v>
@@ -33866,7 +33758,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.414301398385542</v>
+        <v>1.387881418319205</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.592938961469915</v>
@@ -33955,7 +33847,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.479362945672693</v>
+        <v>1.43937187110667</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.672985363007887</v>
@@ -34044,7 +33936,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.521826565961918</v>
+        <v>1.500726287283074</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.712853774694664</v>
@@ -34133,7 +34025,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.527348664545659</v>
+        <v>1.505812079016396</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.719943992847208</v>
@@ -34222,7 +34114,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.522698988864999</v>
+        <v>1.500934247914191</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.697834337277081</v>
@@ -34311,7 +34203,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.525556999346145</v>
+        <v>1.503577585953773</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.695081224664858</v>
@@ -34597,7 +34489,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.352248419864678</v>
+        <v>1.322795360918356</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.968351388848172</v>
@@ -34686,7 +34578,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.355316185799196</v>
+        <v>1.315905320307177</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.981870831696357</v>
@@ -34775,7 +34667,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.323584230832139</v>
+        <v>1.288313222114785</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.09840519833508</v>
@@ -34864,7 +34756,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.325350054513426</v>
+        <v>1.292215391590639</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.899573446191513</v>
@@ -34953,7 +34845,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.346562018019806</v>
+        <v>1.313102623466192</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.083065818252248</v>
@@ -35042,7 +34934,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.348315408592643</v>
+        <v>1.314146515735268</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.221822309788893</v>
@@ -35131,7 +35023,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.359828062733225</v>
+        <v>1.319629069325145</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.167324373367519</v>
@@ -35220,7 +35112,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.351113248325318</v>
+        <v>1.313168045331629</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.096466997359635</v>
@@ -35309,7 +35201,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.349726403536873</v>
+        <v>1.318780079238762</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.125450483916291</v>
@@ -35398,7 +35290,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.34149975502149</v>
+        <v>1.313368347821652</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.079762178172671</v>
@@ -35487,7 +35379,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.341372748413524</v>
+        <v>1.312518140045674</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.995763656416045</v>
@@ -35576,7 +35468,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.373846727596687</v>
+        <v>1.344280654216909</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.031210919741392</v>
@@ -35665,7 +35557,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.376158767423804</v>
+        <v>1.346637457083381</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.965489837871948</v>
@@ -35754,7 +35646,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.35971971359617</v>
+        <v>1.331128042106374</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.018913476140794</v>
@@ -35843,7 +35735,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.356473678268741</v>
+        <v>1.327006768946313</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.989542978695495</v>
@@ -35932,7 +35824,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.342158816394539</v>
+        <v>1.31342795985408</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.959495211188561</v>
@@ -36021,7 +35913,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.364669973898023</v>
+        <v>1.342108506644371</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.848878037477697</v>
@@ -36110,7 +36002,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.470402777206668</v>
+        <v>1.44563985416156</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.457396010390958</v>
@@ -36199,7 +36091,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.473366989123112</v>
+        <v>1.4435390719827</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.401151403563365</v>
@@ -36288,7 +36180,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.470308126394968</v>
+        <v>1.451128155762982</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.385813786393373</v>
@@ -36377,7 +36269,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.455265119025846</v>
+        <v>1.440916412873407</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.443499153914527</v>
@@ -36466,7 +36358,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.473874157405141</v>
+        <v>1.462211592089575</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.287517152253709</v>
@@ -36555,7 +36447,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.477755020473514</v>
+        <v>1.470067182737135</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.363935361433136</v>
@@ -36644,7 +36536,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.484449200418339</v>
+        <v>1.476031930203275</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.480839216636864</v>
@@ -36733,7 +36625,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.491354978041472</v>
+        <v>1.48150041458462</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.23858179777756</v>
@@ -36822,7 +36714,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.500334574830843</v>
+        <v>1.489264030773969</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.416328069566987</v>
@@ -36911,7 +36803,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.493574280381671</v>
+        <v>1.477810387693221</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.208177562426894</v>
@@ -37000,7 +36892,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.485944918927772</v>
+        <v>1.467691682820039</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.42600176793082</v>
@@ -37089,7 +36981,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.512067148947873</v>
+        <v>1.501070623056143</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.588739165185108</v>
@@ -37178,7 +37070,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.505340393715261</v>
+        <v>1.492564953393537</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.459299593218213</v>
@@ -37267,7 +37159,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.529597129735252</v>
+        <v>1.513027200495705</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.534902812874983</v>
@@ -37356,7 +37248,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.515416011826475</v>
+        <v>1.499829740144992</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.563408666420277</v>
@@ -37445,7 +37337,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.482230156977876</v>
+        <v>1.46548381865096</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.473236233814784</v>
@@ -37534,7 +37426,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.488571339241721</v>
+        <v>1.466391779257592</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.447111279750372</v>
@@ -37623,7 +37515,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.45021207220964</v>
+        <v>1.42725689152654</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.354553940502116</v>
@@ -37712,7 +37604,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.446423927522955</v>
+        <v>1.42797791394269</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.328892571273828</v>
@@ -37801,7 +37693,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.445721017369438</v>
+        <v>1.429208208008181</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.4072920175512</v>
@@ -37890,7 +37782,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.434790022462052</v>
+        <v>1.414868419598935</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.374337481169233</v>
@@ -37979,7 +37871,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.431852148981716</v>
+        <v>1.407669364293626</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.42310163124821</v>
@@ -38068,7 +37960,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.43836755623613</v>
+        <v>1.414972701819549</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.447007474773037</v>
@@ -38157,7 +38049,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.444724761077932</v>
+        <v>1.419461772350436</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.27641828674307</v>
@@ -38246,7 +38138,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.457390868755783</v>
+        <v>1.43343736886933</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.308544754685593</v>
@@ -38335,7 +38227,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.463983827186072</v>
+        <v>1.436585437610126</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.34703356497991</v>
@@ -38424,7 +38316,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.457395190578482</v>
+        <v>1.427085766757042</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.350562746845192</v>
@@ -38513,7 +38405,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.464575515959202</v>
+        <v>1.434795897329479</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.482221236588143</v>
@@ -38602,7 +38494,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.486344549399539</v>
+        <v>1.458160244156233</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.419170272373874</v>
@@ -38691,7 +38583,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.478114615694611</v>
+        <v>1.45142070538426</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.39839812982924</v>
@@ -38780,7 +38672,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.501429983892946</v>
+        <v>1.472743480229289</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.513877842607182</v>
@@ -38869,7 +38761,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.530213425905863</v>
+        <v>1.493664948205202</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.173512959521474</v>
@@ -38958,7 +38850,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.547265407734941</v>
+        <v>1.516599598033989</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.710781785927069</v>
@@ -39047,7 +38939,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.571783354443063</v>
+        <v>1.536060051168131</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.002207217965184</v>
@@ -39136,7 +39028,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.537985812701151</v>
+        <v>1.509650250207943</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.552189568098562</v>
@@ -39225,7 +39117,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.538777542542326</v>
+        <v>1.511435934659211</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.764592995325584</v>
@@ -39314,7 +39206,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.542444617722797</v>
+        <v>1.515503365562151</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.533711309421018</v>
@@ -39403,7 +39295,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.527234215161855</v>
+        <v>1.501003944913297</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.505806204317172</v>
@@ -39492,7 +39384,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.52758397560127</v>
+        <v>1.504580313540539</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.52381370430149</v>
@@ -39581,7 +39473,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.538296303047056</v>
+        <v>1.513568857767758</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.613587744148483</v>
@@ -39670,7 +39562,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.541732990044928</v>
+        <v>1.520728479571589</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.767965351817957</v>
@@ -39759,7 +39651,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.553090532388676</v>
+        <v>1.534069591806922</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.518928468971051</v>
@@ -39848,7 +39740,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.541356538598352</v>
+        <v>1.520630850869499</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.591745904120004</v>
@@ -39937,7 +39829,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.540721693238683</v>
+        <v>1.517969897946675</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.651529390680214</v>
